--- a/data/pca/factorExposure/factorExposure_2015-09-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-09-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.02494132932175725</v>
+        <v>0.02159910972989977</v>
       </c>
       <c r="C2">
-        <v>0.03162516641155984</v>
+        <v>-0.04210596954063011</v>
       </c>
       <c r="D2">
-        <v>0.109058003058105</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1274191044939371</v>
+      </c>
+      <c r="E2">
+        <v>0.04646120175419699</v>
+      </c>
+      <c r="F2">
+        <v>0.03418579465693448</v>
+      </c>
+      <c r="G2">
+        <v>0.0878775473576288</v>
+      </c>
+      <c r="H2">
+        <v>0.0518226179796388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.005094605975076762</v>
+        <v>-0.000580559072942729</v>
       </c>
       <c r="C3">
-        <v>0.04688759113078914</v>
+        <v>-0.03627970182660916</v>
       </c>
       <c r="D3">
-        <v>0.05847284223941319</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04463846208552227</v>
+      </c>
+      <c r="E3">
+        <v>0.06950024212369464</v>
+      </c>
+      <c r="F3">
+        <v>0.05596762911213048</v>
+      </c>
+      <c r="G3">
+        <v>0.1329037547383002</v>
+      </c>
+      <c r="H3">
+        <v>0.04804056794869229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05118087487714881</v>
+        <v>0.04397927467577866</v>
       </c>
       <c r="C4">
-        <v>0.06873834917720371</v>
+        <v>-0.08342280233052334</v>
       </c>
       <c r="D4">
-        <v>0.1252393983835025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1436634653137354</v>
+      </c>
+      <c r="E4">
+        <v>0.05900545123379461</v>
+      </c>
+      <c r="F4">
+        <v>0.05714253885944538</v>
+      </c>
+      <c r="G4">
+        <v>-0.0489598797240832</v>
+      </c>
+      <c r="H4">
+        <v>0.01533183939549455</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.03209264663531482</v>
+        <v>0.03225518843993219</v>
       </c>
       <c r="C6">
-        <v>0.02630626360946196</v>
+        <v>-0.03460486835409252</v>
       </c>
       <c r="D6">
-        <v>0.1493507005097767</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1394752247159896</v>
+      </c>
+      <c r="E6">
+        <v>0.01104997226542924</v>
+      </c>
+      <c r="F6">
+        <v>0.05636239625600158</v>
+      </c>
+      <c r="G6">
+        <v>0.00759971239433361</v>
+      </c>
+      <c r="H6">
+        <v>0.05169754343109287</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0180850488791488</v>
+        <v>0.01484202619366102</v>
       </c>
       <c r="C7">
-        <v>0.03280768311115328</v>
+        <v>-0.03894878284314947</v>
       </c>
       <c r="D7">
-        <v>0.1089553951759283</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09807416617069817</v>
+      </c>
+      <c r="E7">
+        <v>-0.0001146250071401843</v>
+      </c>
+      <c r="F7">
+        <v>0.02907220919741603</v>
+      </c>
+      <c r="G7">
+        <v>0.03086319097947538</v>
+      </c>
+      <c r="H7">
+        <v>0.06354206549515179</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01092511855282946</v>
+        <v>0.00603613522263888</v>
       </c>
       <c r="C8">
-        <v>0.0347988605212684</v>
+        <v>-0.03952749401529733</v>
       </c>
       <c r="D8">
-        <v>0.06156938860890084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07643384826008061</v>
+      </c>
+      <c r="E8">
+        <v>0.02749602362010413</v>
+      </c>
+      <c r="F8">
+        <v>0.07259584817091626</v>
+      </c>
+      <c r="G8">
+        <v>0.05643437835018526</v>
+      </c>
+      <c r="H8">
+        <v>0.02927111713504252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04134672315633178</v>
+        <v>0.03448523122671417</v>
       </c>
       <c r="C9">
-        <v>0.06209541088692069</v>
+        <v>-0.07362276707638686</v>
       </c>
       <c r="D9">
-        <v>0.1162721728609982</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.123502987807929</v>
+      </c>
+      <c r="E9">
+        <v>0.04178456844996983</v>
+      </c>
+      <c r="F9">
+        <v>0.03629741820583408</v>
+      </c>
+      <c r="G9">
+        <v>-0.0318043820355171</v>
+      </c>
+      <c r="H9">
+        <v>0.009248449352844652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.129326414972177</v>
+        <v>0.1761140395414185</v>
       </c>
       <c r="C10">
-        <v>-0.1845185505066623</v>
+        <v>0.1692934876213807</v>
       </c>
       <c r="D10">
-        <v>0.0005331167150942879</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.007683472810771608</v>
+      </c>
+      <c r="E10">
+        <v>0.03360604961601046</v>
+      </c>
+      <c r="F10">
+        <v>0.03947575830467936</v>
+      </c>
+      <c r="G10">
+        <v>-0.01746836240245258</v>
+      </c>
+      <c r="H10">
+        <v>-0.04615309847460548</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03367646595536021</v>
+        <v>0.02774870163799566</v>
       </c>
       <c r="C11">
-        <v>0.04366604890866429</v>
+        <v>-0.05204007462185246</v>
       </c>
       <c r="D11">
-        <v>0.06086919068078526</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05463711776813907</v>
+      </c>
+      <c r="E11">
+        <v>-0.0149509201839953</v>
+      </c>
+      <c r="F11">
+        <v>-0.004116615110216337</v>
+      </c>
+      <c r="G11">
+        <v>0.0161951541649273</v>
+      </c>
+      <c r="H11">
+        <v>0.02717460862611441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03867138256425415</v>
+        <v>0.03105900566837695</v>
       </c>
       <c r="C12">
-        <v>0.0450631370208039</v>
+        <v>-0.05280552793795567</v>
       </c>
       <c r="D12">
-        <v>0.06436340930851066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05451848155749901</v>
+      </c>
+      <c r="E12">
+        <v>-0.004871307378512215</v>
+      </c>
+      <c r="F12">
+        <v>-0.008116692004448483</v>
+      </c>
+      <c r="G12">
+        <v>0.01808027052753284</v>
+      </c>
+      <c r="H12">
+        <v>0.03320645480805724</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.009832574506848355</v>
+        <v>0.01305710556861001</v>
       </c>
       <c r="C13">
-        <v>0.03630108149675233</v>
+        <v>-0.04521569863557628</v>
       </c>
       <c r="D13">
-        <v>0.1381527904693857</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1579112202927277</v>
+      </c>
+      <c r="E13">
+        <v>0.0183406422128948</v>
+      </c>
+      <c r="F13">
+        <v>0.07579612765189894</v>
+      </c>
+      <c r="G13">
+        <v>0.04434543762936511</v>
+      </c>
+      <c r="H13">
+        <v>0.03183703598989675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.004341185041965736</v>
+        <v>0.005967312122970061</v>
       </c>
       <c r="C14">
-        <v>0.02424640425377411</v>
+        <v>-0.02812491347007952</v>
       </c>
       <c r="D14">
-        <v>0.1018398985193944</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1047614971658779</v>
+      </c>
+      <c r="E14">
+        <v>0.02064453119456464</v>
+      </c>
+      <c r="F14">
+        <v>0.02964687998372381</v>
+      </c>
+      <c r="G14">
+        <v>0.03520176973240085</v>
+      </c>
+      <c r="H14">
+        <v>0.08139483761974858</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.003119420284599069</v>
+        <v>0.001617784512987602</v>
       </c>
       <c r="C15">
-        <v>0.005766944366798094</v>
+        <v>-0.01413642577956526</v>
       </c>
       <c r="D15">
-        <v>0.01001943572159172</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04044748606704941</v>
+      </c>
+      <c r="E15">
+        <v>0.008919149329123533</v>
+      </c>
+      <c r="F15">
+        <v>0.00791076758274579</v>
+      </c>
+      <c r="G15">
+        <v>0.01024806100843267</v>
+      </c>
+      <c r="H15">
+        <v>0.01646205542088487</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03115171423937829</v>
+        <v>0.02609066820177231</v>
       </c>
       <c r="C16">
-        <v>0.04523658595555578</v>
+        <v>-0.05102573386487554</v>
       </c>
       <c r="D16">
-        <v>0.06967914224147574</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06092773824955272</v>
+      </c>
+      <c r="E16">
+        <v>0.003813008970911325</v>
+      </c>
+      <c r="F16">
+        <v>0.003575385382777625</v>
+      </c>
+      <c r="G16">
+        <v>0.01732124774653953</v>
+      </c>
+      <c r="H16">
+        <v>0.04400986799855305</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01013907726688624</v>
+        <v>0.005687773241193778</v>
       </c>
       <c r="C19">
-        <v>0.03417224438376362</v>
+        <v>-0.02950148709330321</v>
       </c>
       <c r="D19">
-        <v>0.147234252448613</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1125613135323932</v>
+      </c>
+      <c r="E19">
+        <v>0.05428223644157827</v>
+      </c>
+      <c r="F19">
+        <v>0.01369246031328486</v>
+      </c>
+      <c r="G19">
+        <v>0.03175556509011734</v>
+      </c>
+      <c r="H19">
+        <v>0.04718595412037199</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01383597830129111</v>
+        <v>0.01378212204925112</v>
       </c>
       <c r="C20">
-        <v>0.03621399011148937</v>
+        <v>-0.04056837127676496</v>
       </c>
       <c r="D20">
-        <v>0.0915778811013957</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1047556205850882</v>
+      </c>
+      <c r="E20">
+        <v>0.04223802830870918</v>
+      </c>
+      <c r="F20">
+        <v>0.02582899645900313</v>
+      </c>
+      <c r="G20">
+        <v>0.01323816870916405</v>
+      </c>
+      <c r="H20">
+        <v>0.05336010590607318</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.009558747286917081</v>
+        <v>0.007294127780218894</v>
       </c>
       <c r="C21">
-        <v>0.03822635381608149</v>
+        <v>-0.04356115270417375</v>
       </c>
       <c r="D21">
-        <v>0.1514208619447709</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1510656454218385</v>
+      </c>
+      <c r="E21">
+        <v>0.07382573037846588</v>
+      </c>
+      <c r="F21">
+        <v>0.0633976323247662</v>
+      </c>
+      <c r="G21">
+        <v>0.01645147034314133</v>
+      </c>
+      <c r="H21">
+        <v>0.07843060067543722</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.0008497515173738163</v>
+        <v>0.007609450858621456</v>
       </c>
       <c r="C22">
-        <v>0.04919961148403206</v>
+        <v>-0.05141251433278211</v>
       </c>
       <c r="D22">
-        <v>0.1306012823593627</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1885918580320061</v>
+      </c>
+      <c r="E22">
+        <v>0.009017073752494819</v>
+      </c>
+      <c r="F22">
+        <v>0.1230836745337861</v>
+      </c>
+      <c r="G22">
+        <v>0.1064841249798642</v>
+      </c>
+      <c r="H22">
+        <v>-0.1040556198946803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001021181013418209</v>
+        <v>0.007683804678435806</v>
       </c>
       <c r="C23">
-        <v>0.04951110011388035</v>
+        <v>-0.05196812758043555</v>
       </c>
       <c r="D23">
-        <v>0.1299997790566753</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1877077623897881</v>
+      </c>
+      <c r="E23">
+        <v>0.009170824549085774</v>
+      </c>
+      <c r="F23">
+        <v>0.1230664679691651</v>
+      </c>
+      <c r="G23">
+        <v>0.105767660412572</v>
+      </c>
+      <c r="H23">
+        <v>-0.1040885658045476</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03724143152179427</v>
+        <v>0.02853343394945284</v>
       </c>
       <c r="C24">
-        <v>0.05819833665622092</v>
+        <v>-0.0640407126367603</v>
       </c>
       <c r="D24">
-        <v>0.06846208558995377</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06124791365504083</v>
+      </c>
+      <c r="E24">
+        <v>0.001848185732978984</v>
+      </c>
+      <c r="F24">
+        <v>0.002126264787473011</v>
+      </c>
+      <c r="G24">
+        <v>0.0118414001010178</v>
+      </c>
+      <c r="H24">
+        <v>0.05621173170225042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0418094712914377</v>
+        <v>0.03353152524851318</v>
       </c>
       <c r="C25">
-        <v>0.05222729599222354</v>
+        <v>-0.06025825323229188</v>
       </c>
       <c r="D25">
-        <v>0.06709676324250616</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06017500711839722</v>
+      </c>
+      <c r="E25">
+        <v>0.006332774592286195</v>
+      </c>
+      <c r="F25">
+        <v>0.003747660229245844</v>
+      </c>
+      <c r="G25">
+        <v>0.01510624257371912</v>
+      </c>
+      <c r="H25">
+        <v>0.02213588354563365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01352930076322631</v>
+        <v>0.01376788588676701</v>
       </c>
       <c r="C26">
-        <v>0.01374107673153709</v>
+        <v>-0.02227935329104319</v>
       </c>
       <c r="D26">
-        <v>0.06946562326562233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07266553728305186</v>
+      </c>
+      <c r="E26">
+        <v>0.01763579636191679</v>
+      </c>
+      <c r="F26">
+        <v>0.0329360359016923</v>
+      </c>
+      <c r="G26">
+        <v>0.02208439914271342</v>
+      </c>
+      <c r="H26">
+        <v>0.04897425924136272</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1916515736259187</v>
+        <v>0.2528395500520052</v>
       </c>
       <c r="C28">
-        <v>-0.2487634891478819</v>
+        <v>0.2207126380330186</v>
       </c>
       <c r="D28">
-        <v>-0.01017999506829788</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.005548489500493286</v>
+      </c>
+      <c r="E28">
+        <v>0.05804918928414936</v>
+      </c>
+      <c r="F28">
+        <v>0.02165710319631717</v>
+      </c>
+      <c r="G28">
+        <v>-0.04728853702836829</v>
+      </c>
+      <c r="H28">
+        <v>-0.05405962549821151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003238959406676825</v>
+        <v>0.005289928215245623</v>
       </c>
       <c r="C29">
-        <v>0.02209616552096798</v>
+        <v>-0.02704617998627505</v>
       </c>
       <c r="D29">
-        <v>0.09285589172876971</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1028981305267523</v>
+      </c>
+      <c r="E29">
+        <v>0.008365023713858371</v>
+      </c>
+      <c r="F29">
+        <v>0.04970679667508485</v>
+      </c>
+      <c r="G29">
+        <v>0.02714286003543809</v>
+      </c>
+      <c r="H29">
+        <v>0.07861625557036153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.02941538864555522</v>
+        <v>0.0310130336117554</v>
       </c>
       <c r="C30">
-        <v>0.06448949753162683</v>
+        <v>-0.07612059586751861</v>
       </c>
       <c r="D30">
-        <v>0.1571190590816833</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1669280845401324</v>
+      </c>
+      <c r="E30">
+        <v>0.01128773619773549</v>
+      </c>
+      <c r="F30">
+        <v>0.04115482548867742</v>
+      </c>
+      <c r="G30">
+        <v>0.005937577670064425</v>
+      </c>
+      <c r="H30">
+        <v>0.06163314172072152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05687300226155413</v>
+        <v>0.04135343223675928</v>
       </c>
       <c r="C31">
-        <v>0.07424646981353059</v>
+        <v>-0.08307481286603489</v>
       </c>
       <c r="D31">
-        <v>0.05261007888931459</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04191906624936076</v>
+      </c>
+      <c r="E31">
+        <v>0.02230765887595077</v>
+      </c>
+      <c r="F31">
+        <v>0.04031162711485192</v>
+      </c>
+      <c r="G31">
+        <v>0.0191116271700543</v>
+      </c>
+      <c r="H31">
+        <v>0.01686728554686122</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0237061550951054</v>
+        <v>0.02315647698160242</v>
       </c>
       <c r="C32">
-        <v>0.02110383547314707</v>
+        <v>-0.0278704512974666</v>
       </c>
       <c r="D32">
-        <v>0.09295066718407262</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1196984795778894</v>
+      </c>
+      <c r="E32">
+        <v>0.04689006687414041</v>
+      </c>
+      <c r="F32">
+        <v>0.06228842641884098</v>
+      </c>
+      <c r="G32">
+        <v>0.01442250048944292</v>
+      </c>
+      <c r="H32">
+        <v>0.02729838018177011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02151474860219643</v>
+        <v>0.02137950019652037</v>
       </c>
       <c r="C33">
-        <v>0.0443098571849753</v>
+        <v>-0.05176659109561602</v>
       </c>
       <c r="D33">
-        <v>0.1437798634374967</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1380737516213413</v>
+      </c>
+      <c r="E33">
+        <v>0.03389560103996028</v>
+      </c>
+      <c r="F33">
+        <v>0.03749338030744308</v>
+      </c>
+      <c r="G33">
+        <v>0.01652584848197215</v>
+      </c>
+      <c r="H33">
+        <v>0.04603118299932975</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.0362388277063742</v>
+        <v>0.02643763184087879</v>
       </c>
       <c r="C34">
-        <v>0.06235014219612733</v>
+        <v>-0.06532405449174442</v>
       </c>
       <c r="D34">
-        <v>0.06747868477378102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05043614867894178</v>
+      </c>
+      <c r="E34">
+        <v>-0.01513708006035909</v>
+      </c>
+      <c r="F34">
+        <v>-0.01257060966409823</v>
+      </c>
+      <c r="G34">
+        <v>0.03094481016812813</v>
+      </c>
+      <c r="H34">
+        <v>0.04412711974456049</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001344967366193402</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.001913275102348028</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01004342430169506</v>
+      </c>
+      <c r="E35">
+        <v>-0.0004367911079174137</v>
+      </c>
+      <c r="F35">
+        <v>0.00201873263852899</v>
+      </c>
+      <c r="G35">
+        <v>0.00099437110096673</v>
+      </c>
+      <c r="H35">
+        <v>0.002475076287339916</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01852245153328644</v>
+        <v>0.0183993321259237</v>
       </c>
       <c r="C36">
-        <v>0.008802819284129564</v>
+        <v>-0.01898938092264611</v>
       </c>
       <c r="D36">
-        <v>0.09149105522357141</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08618469557188499</v>
+      </c>
+      <c r="E36">
+        <v>0.02309307446974332</v>
+      </c>
+      <c r="F36">
+        <v>0.02441910523201461</v>
+      </c>
+      <c r="G36">
+        <v>0.0005319397886605448</v>
+      </c>
+      <c r="H36">
+        <v>0.04243995021375902</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.01722817189540513</v>
+        <v>0.02157440915037783</v>
       </c>
       <c r="C38">
-        <v>0.01500348033896138</v>
+        <v>-0.01920252783439774</v>
       </c>
       <c r="D38">
-        <v>0.07950323115073847</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.07918764266839344</v>
+      </c>
+      <c r="E38">
+        <v>0.03446322185855629</v>
+      </c>
+      <c r="F38">
+        <v>-0.009732275353023432</v>
+      </c>
+      <c r="G38">
+        <v>0.02809875740163851</v>
+      </c>
+      <c r="H38">
+        <v>0.03415051838016719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03785487777045075</v>
+        <v>0.0296900455114746</v>
       </c>
       <c r="C39">
-        <v>0.06131990612702156</v>
+        <v>-0.07539155096362921</v>
       </c>
       <c r="D39">
-        <v>0.1068115728352681</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.108738046733066</v>
+      </c>
+      <c r="E39">
+        <v>-0.00150409921126335</v>
+      </c>
+      <c r="F39">
+        <v>-0.00490779261490689</v>
+      </c>
+      <c r="G39">
+        <v>0.01446128727178995</v>
+      </c>
+      <c r="H39">
+        <v>0.09066546581588329</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01589149096895542</v>
+        <v>0.01277399998021723</v>
       </c>
       <c r="C40">
-        <v>0.04343447038196742</v>
+        <v>-0.03961119647855248</v>
       </c>
       <c r="D40">
-        <v>0.08614503532173155</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.09245986181224151</v>
+      </c>
+      <c r="E40">
+        <v>0.0395621789678304</v>
+      </c>
+      <c r="F40">
+        <v>0.1071079061979171</v>
+      </c>
+      <c r="G40">
+        <v>0.1818727214215841</v>
+      </c>
+      <c r="H40">
+        <v>0.08385679927470815</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.03081119927908739</v>
+        <v>0.02855682025917137</v>
       </c>
       <c r="C41">
-        <v>0.005455211055173168</v>
+        <v>-0.01454500844393982</v>
       </c>
       <c r="D41">
-        <v>0.06879898138250998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05175121333965341</v>
+      </c>
+      <c r="E41">
+        <v>0.04736070041160079</v>
+      </c>
+      <c r="F41">
+        <v>0.01609819192879679</v>
+      </c>
+      <c r="G41">
+        <v>0.03454538773177773</v>
+      </c>
+      <c r="H41">
+        <v>0.03390242648001077</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02548256857842583</v>
+        <v>0.02168547665474305</v>
       </c>
       <c r="C43">
-        <v>0.01451052849403442</v>
+        <v>-0.02090138697059228</v>
       </c>
       <c r="D43">
-        <v>0.1047575724813273</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08029773909994316</v>
+      </c>
+      <c r="E43">
+        <v>0.02684889498173139</v>
+      </c>
+      <c r="F43">
+        <v>0.01257903252499987</v>
+      </c>
+      <c r="G43">
+        <v>0.03161220733863145</v>
+      </c>
+      <c r="H43">
+        <v>0.04321818854761234</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01446279920265091</v>
+        <v>0.01588862593717876</v>
       </c>
       <c r="C44">
-        <v>0.04392868876730599</v>
+        <v>-0.04508048975868067</v>
       </c>
       <c r="D44">
-        <v>0.09227186106186819</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1097871236909431</v>
+      </c>
+      <c r="E44">
+        <v>0.0342885677614955</v>
+      </c>
+      <c r="F44">
+        <v>0.02372628298686787</v>
+      </c>
+      <c r="G44">
+        <v>0.01097683504813587</v>
+      </c>
+      <c r="H44">
+        <v>0.04590505539482444</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01624026241351167</v>
+        <v>0.01187202123338545</v>
       </c>
       <c r="C46">
-        <v>0.02706390937363773</v>
+        <v>-0.03585718653176748</v>
       </c>
       <c r="D46">
-        <v>0.1019783609886922</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09920954047539636</v>
+      </c>
+      <c r="E46">
+        <v>0.02101412253013515</v>
+      </c>
+      <c r="F46">
+        <v>0.02671782716713035</v>
+      </c>
+      <c r="G46">
+        <v>0.01889574249688162</v>
+      </c>
+      <c r="H46">
+        <v>0.08606432028062636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09102102245165437</v>
+        <v>0.07160276654371971</v>
       </c>
       <c r="C47">
-        <v>0.08747664014530154</v>
+        <v>-0.1032096885966388</v>
       </c>
       <c r="D47">
-        <v>0.02670750099174546</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02400512121786168</v>
+      </c>
+      <c r="E47">
+        <v>0.02886950409001778</v>
+      </c>
+      <c r="F47">
+        <v>0.02226617095060729</v>
+      </c>
+      <c r="G47">
+        <v>0.001772712233838787</v>
+      </c>
+      <c r="H47">
+        <v>-0.04911003131516525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01189328069260531</v>
+        <v>0.01351699198742446</v>
       </c>
       <c r="C48">
-        <v>0.02001778127453348</v>
+        <v>-0.02555989559943802</v>
       </c>
       <c r="D48">
-        <v>0.08030212318981479</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08329742050473644</v>
+      </c>
+      <c r="E48">
+        <v>0.05178769253331726</v>
+      </c>
+      <c r="F48">
+        <v>0.03190093396741226</v>
+      </c>
+      <c r="G48">
+        <v>0.009657248520403746</v>
+      </c>
+      <c r="H48">
+        <v>0.0599004948167477</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.05292972274287417</v>
+        <v>0.03950289933692023</v>
       </c>
       <c r="C50">
-        <v>0.06106850182248372</v>
+        <v>-0.07195150899209633</v>
       </c>
       <c r="D50">
-        <v>0.05972585293156366</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05279196741204299</v>
+      </c>
+      <c r="E50">
+        <v>0.02645520568601764</v>
+      </c>
+      <c r="F50">
+        <v>0.04196804913509623</v>
+      </c>
+      <c r="G50">
+        <v>0.04144268874221382</v>
+      </c>
+      <c r="H50">
+        <v>0.001944353769112076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01146395438268953</v>
+        <v>0.009594276268510189</v>
       </c>
       <c r="C51">
-        <v>0.01847782157103979</v>
+        <v>-0.02442956055029984</v>
       </c>
       <c r="D51">
-        <v>0.08998234841666924</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.09388868410449296</v>
+      </c>
+      <c r="E51">
+        <v>-0.001539424875125598</v>
+      </c>
+      <c r="F51">
+        <v>0.01039407146029421</v>
+      </c>
+      <c r="G51">
+        <v>0.005603626299453487</v>
+      </c>
+      <c r="H51">
+        <v>0.07185664582467491</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1072225292267947</v>
+        <v>0.09230675232360327</v>
       </c>
       <c r="C53">
-        <v>0.1065313335253938</v>
+        <v>-0.1245072242351465</v>
       </c>
       <c r="D53">
-        <v>-0.01504319243602043</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.007646453824788607</v>
+      </c>
+      <c r="E53">
+        <v>0.07490737536708686</v>
+      </c>
+      <c r="F53">
+        <v>0.0784099967203435</v>
+      </c>
+      <c r="G53">
+        <v>-0.00279871444784479</v>
+      </c>
+      <c r="H53">
+        <v>-0.01578176230631894</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01949228100387862</v>
+        <v>0.01817725564045843</v>
       </c>
       <c r="C54">
-        <v>0.02718647068128497</v>
+        <v>-0.03650766153101617</v>
       </c>
       <c r="D54">
-        <v>0.1059878053168029</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.09552002204012801</v>
+      </c>
+      <c r="E54">
+        <v>0.03300448895309051</v>
+      </c>
+      <c r="F54">
+        <v>0.02017407894245235</v>
+      </c>
+      <c r="G54">
+        <v>0.05237168880231528</v>
+      </c>
+      <c r="H54">
+        <v>0.06339119598266016</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09882492467549701</v>
+        <v>0.08238352822446396</v>
       </c>
       <c r="C55">
-        <v>0.08070887354851677</v>
+        <v>-0.0989549263378796</v>
       </c>
       <c r="D55">
-        <v>-0.02794598411013257</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02250474717595427</v>
+      </c>
+      <c r="E55">
+        <v>0.02876770251601382</v>
+      </c>
+      <c r="F55">
+        <v>0.06515047646674699</v>
+      </c>
+      <c r="G55">
+        <v>0.02427206991685113</v>
+      </c>
+      <c r="H55">
+        <v>-0.02059972268373942</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1384810490455031</v>
+        <v>0.1148732249379386</v>
       </c>
       <c r="C56">
-        <v>0.1149302130088588</v>
+        <v>-0.1468284220732874</v>
       </c>
       <c r="D56">
-        <v>-0.02463554744888898</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.02429643036281019</v>
+      </c>
+      <c r="E56">
+        <v>0.04900038062223824</v>
+      </c>
+      <c r="F56">
+        <v>0.05126699892250711</v>
+      </c>
+      <c r="G56">
+        <v>0.02711412786436742</v>
+      </c>
+      <c r="H56">
+        <v>-0.04534213615967291</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.006034547094680924</v>
+        <v>0.00434206963092906</v>
       </c>
       <c r="C58">
-        <v>0.03731426028195484</v>
+        <v>-0.04791271415952552</v>
       </c>
       <c r="D58">
-        <v>0.1974073723616673</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2621174653413733</v>
+      </c>
+      <c r="E58">
+        <v>0.09696489953189585</v>
+      </c>
+      <c r="F58">
+        <v>0.1124162655367856</v>
+      </c>
+      <c r="G58">
+        <v>0.05598706436312737</v>
+      </c>
+      <c r="H58">
+        <v>-0.04828101733679285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1510366012669497</v>
+        <v>0.1958226187382312</v>
       </c>
       <c r="C59">
-        <v>-0.1669647214880386</v>
+        <v>0.1405494258992329</v>
       </c>
       <c r="D59">
-        <v>0.05657017265731374</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.07084792510703276</v>
+      </c>
+      <c r="E59">
+        <v>0.04135546335515872</v>
+      </c>
+      <c r="F59">
+        <v>-0.02089593254852861</v>
+      </c>
+      <c r="G59">
+        <v>-0.01785995336590261</v>
+      </c>
+      <c r="H59">
+        <v>-0.01991344185862905</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2313199344310831</v>
+        <v>0.209211990630866</v>
       </c>
       <c r="C60">
-        <v>0.07861173001509121</v>
+        <v>-0.1257812095376389</v>
       </c>
       <c r="D60">
-        <v>0.1822952223106339</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1190016660637387</v>
+      </c>
+      <c r="E60">
+        <v>-0.3320374413109756</v>
+      </c>
+      <c r="F60">
+        <v>-0.1018742202760447</v>
+      </c>
+      <c r="G60">
+        <v>-0.09857341135364989</v>
+      </c>
+      <c r="H60">
+        <v>-0.1650508805455203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04369355866654399</v>
+        <v>0.0346377580928359</v>
       </c>
       <c r="C61">
-        <v>0.05662611565346879</v>
+        <v>-0.06816687058768743</v>
       </c>
       <c r="D61">
-        <v>0.1145865699412129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09721666297029825</v>
+      </c>
+      <c r="E61">
+        <v>-0.005280855721149114</v>
+      </c>
+      <c r="F61">
+        <v>-0.004900297799946959</v>
+      </c>
+      <c r="G61">
+        <v>0.008162779409750409</v>
+      </c>
+      <c r="H61">
+        <v>0.04960289314028966</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01473660975018327</v>
+        <v>0.01287136111833095</v>
       </c>
       <c r="C63">
-        <v>0.02535813919726003</v>
+        <v>-0.0349880343056058</v>
       </c>
       <c r="D63">
-        <v>0.08369228255168933</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07704958220139102</v>
+      </c>
+      <c r="E63">
+        <v>0.005005949343994195</v>
+      </c>
+      <c r="F63">
+        <v>0.02608230005399846</v>
+      </c>
+      <c r="G63">
+        <v>0.01024371601382786</v>
+      </c>
+      <c r="H63">
+        <v>0.04972858061990149</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05713060792265255</v>
+        <v>0.04356247378293298</v>
       </c>
       <c r="C64">
-        <v>0.07599377651791832</v>
+        <v>-0.08427014252699859</v>
       </c>
       <c r="D64">
-        <v>0.05112415233327345</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05231131811933395</v>
+      </c>
+      <c r="E64">
+        <v>0.01550645025217064</v>
+      </c>
+      <c r="F64">
+        <v>0.005463791768847988</v>
+      </c>
+      <c r="G64">
+        <v>-0.06215107590907334</v>
+      </c>
+      <c r="H64">
+        <v>0.08557280540251605</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03152592066094013</v>
+        <v>0.02931936895824666</v>
       </c>
       <c r="C65">
-        <v>0.02289725252989313</v>
+        <v>-0.0334831630291084</v>
       </c>
       <c r="D65">
-        <v>0.1156687027328265</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1094467617410952</v>
+      </c>
+      <c r="E65">
+        <v>-0.007003345810278254</v>
+      </c>
+      <c r="F65">
+        <v>0.03059015924618971</v>
+      </c>
+      <c r="G65">
+        <v>0.0123501673910493</v>
+      </c>
+      <c r="H65">
+        <v>0.01502494521622334</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04110724216468504</v>
+        <v>0.03319172717605425</v>
       </c>
       <c r="C66">
-        <v>0.06922521096962864</v>
+        <v>-0.08628378873332836</v>
       </c>
       <c r="D66">
-        <v>0.1207434766424318</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1334100605890513</v>
+      </c>
+      <c r="E66">
+        <v>0.002570864507476677</v>
+      </c>
+      <c r="F66">
+        <v>-0.000398641222697054</v>
+      </c>
+      <c r="G66">
+        <v>0.02083310989433125</v>
+      </c>
+      <c r="H66">
+        <v>0.04739977953365275</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03859904403880862</v>
+        <v>0.03748698840582261</v>
       </c>
       <c r="C67">
-        <v>0.02045326770080106</v>
+        <v>-0.02797441199853166</v>
       </c>
       <c r="D67">
-        <v>0.04319827700697623</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.0339369221386512</v>
+      </c>
+      <c r="E67">
+        <v>0.009678931245801858</v>
+      </c>
+      <c r="F67">
+        <v>-0.02329223474898467</v>
+      </c>
+      <c r="G67">
+        <v>0.02910515971391412</v>
+      </c>
+      <c r="H67">
+        <v>0.03944899185698342</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1835074747566237</v>
+        <v>0.2255880476297794</v>
       </c>
       <c r="C68">
-        <v>-0.2001773363466072</v>
+        <v>0.1643386807563708</v>
       </c>
       <c r="D68">
-        <v>0.02470735735676177</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0301312294299969</v>
+      </c>
+      <c r="E68">
+        <v>0.01432161602875485</v>
+      </c>
+      <c r="F68">
+        <v>0.03566528335465381</v>
+      </c>
+      <c r="G68">
+        <v>0.02074239859073294</v>
+      </c>
+      <c r="H68">
+        <v>-0.02552334591295106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0863095903943963</v>
+        <v>0.06558766217836559</v>
       </c>
       <c r="C69">
-        <v>0.103133157389972</v>
+        <v>-0.1094605244416218</v>
       </c>
       <c r="D69">
-        <v>0.05998639395427368</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.03874258619202567</v>
+      </c>
+      <c r="E69">
+        <v>0.01499698343109794</v>
+      </c>
+      <c r="F69">
+        <v>0.01184713088548868</v>
+      </c>
+      <c r="G69">
+        <v>0.01219501545958829</v>
+      </c>
+      <c r="H69">
+        <v>-0.01636865539858188</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1701659819807029</v>
+        <v>0.2131390246005521</v>
       </c>
       <c r="C71">
-        <v>-0.2074734813039557</v>
+        <v>0.1737157192057202</v>
       </c>
       <c r="D71">
-        <v>0.01534996218917959</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.02653520720476366</v>
+      </c>
+      <c r="E71">
+        <v>0.03747304043127882</v>
+      </c>
+      <c r="F71">
+        <v>0.05782675053585377</v>
+      </c>
+      <c r="G71">
+        <v>0.04152323086212271</v>
+      </c>
+      <c r="H71">
+        <v>-0.02472590847526581</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1084918184124827</v>
+        <v>0.09373051081360133</v>
       </c>
       <c r="C72">
-        <v>0.06183992651991843</v>
+        <v>-0.09081897364788344</v>
       </c>
       <c r="D72">
-        <v>0.08288127595671052</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.08233151146141612</v>
+      </c>
+      <c r="E72">
+        <v>-0.06710425018429922</v>
+      </c>
+      <c r="F72">
+        <v>0.03960662789994059</v>
+      </c>
+      <c r="G72">
+        <v>0.001455205044174879</v>
+      </c>
+      <c r="H72">
+        <v>0.02482332710800562</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2174767788406377</v>
+        <v>0.1945803429867031</v>
       </c>
       <c r="C73">
-        <v>0.04318004475993679</v>
+        <v>-0.1046954910213411</v>
       </c>
       <c r="D73">
-        <v>0.3061703892523204</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1691052637767276</v>
+      </c>
+      <c r="E73">
+        <v>-0.5861219708183438</v>
+      </c>
+      <c r="F73">
+        <v>-0.171927341903945</v>
+      </c>
+      <c r="G73">
+        <v>-0.1669507366065087</v>
+      </c>
+      <c r="H73">
+        <v>-0.1915938909030028</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1109430564085743</v>
+        <v>0.09040939927442952</v>
       </c>
       <c r="C74">
-        <v>0.0884202414652434</v>
+        <v>-0.1099163263462024</v>
       </c>
       <c r="D74">
-        <v>-0.0400213171425702</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03804620007019419</v>
+      </c>
+      <c r="E74">
+        <v>0.03122013730599203</v>
+      </c>
+      <c r="F74">
+        <v>0.0666547351865011</v>
+      </c>
+      <c r="G74">
+        <v>-0.02067599200202451</v>
+      </c>
+      <c r="H74">
+        <v>-0.03217179517270145</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2614077511533094</v>
+        <v>0.216437799945181</v>
       </c>
       <c r="C75">
-        <v>0.1539728371005857</v>
+        <v>-0.2001021147863464</v>
       </c>
       <c r="D75">
-        <v>-0.1284500336631078</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1460408751034368</v>
+      </c>
+      <c r="E75">
+        <v>0.07955685887194687</v>
+      </c>
+      <c r="F75">
+        <v>0.0158423686852389</v>
+      </c>
+      <c r="G75">
+        <v>0.04659623840737523</v>
+      </c>
+      <c r="H75">
+        <v>-0.05382824661920253</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1503539305028303</v>
+        <v>0.1216546352233624</v>
       </c>
       <c r="C76">
-        <v>0.1117422447689434</v>
+        <v>-0.1392152221398533</v>
       </c>
       <c r="D76">
-        <v>-0.02873066191659786</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03363204815728012</v>
+      </c>
+      <c r="E76">
+        <v>0.07759781457463909</v>
+      </c>
+      <c r="F76">
+        <v>0.03581228342520979</v>
+      </c>
+      <c r="G76">
+        <v>0.03138348647382479</v>
+      </c>
+      <c r="H76">
+        <v>0.02854943187406991</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.04377911239913274</v>
+        <v>0.0474704437171039</v>
       </c>
       <c r="C77">
-        <v>0.07302235157011064</v>
+        <v>-0.08186140182727286</v>
       </c>
       <c r="D77">
-        <v>0.02663619621070003</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1368580752774762</v>
+      </c>
+      <c r="E77">
+        <v>0.4754402083957034</v>
+      </c>
+      <c r="F77">
+        <v>-0.4128644905544685</v>
+      </c>
+      <c r="G77">
+        <v>0.03807976757984511</v>
+      </c>
+      <c r="H77">
+        <v>-0.6743372889982785</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04179873964676966</v>
+        <v>0.03942398978479665</v>
       </c>
       <c r="C78">
-        <v>0.06281637143791903</v>
+        <v>-0.07438133042485134</v>
       </c>
       <c r="D78">
-        <v>0.1370270938092023</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1404956610464109</v>
+      </c>
+      <c r="E78">
+        <v>0.00920995082639979</v>
+      </c>
+      <c r="F78">
+        <v>0.0376844885855934</v>
+      </c>
+      <c r="G78">
+        <v>-0.007989144794838402</v>
+      </c>
+      <c r="H78">
+        <v>-0.01801332570443379</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.05803502471192227</v>
+        <v>0.05331625560847476</v>
       </c>
       <c r="C79">
-        <v>0.1057323953996684</v>
+        <v>-0.1156760701870412</v>
       </c>
       <c r="D79">
-        <v>-0.1595950525316512</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.07211920768872605</v>
+      </c>
+      <c r="E79">
+        <v>0.1984855760353905</v>
+      </c>
+      <c r="F79">
+        <v>0.4293466518284039</v>
+      </c>
+      <c r="G79">
+        <v>-0.7806546433046804</v>
+      </c>
+      <c r="H79">
+        <v>-0.08179240931104571</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.02245108189413643</v>
+        <v>0.01841761065601517</v>
       </c>
       <c r="C80">
-        <v>0.04882259453861419</v>
+        <v>-0.0491243093683223</v>
       </c>
       <c r="D80">
-        <v>0.02908783077949797</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02502643405148133</v>
+      </c>
+      <c r="E80">
+        <v>0.007822149702648783</v>
+      </c>
+      <c r="F80">
+        <v>0.02164393597203709</v>
+      </c>
+      <c r="G80">
+        <v>0.03491142542770668</v>
+      </c>
+      <c r="H80">
+        <v>0.05000524984801855</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1353944416069598</v>
+        <v>0.1053490945518571</v>
       </c>
       <c r="C81">
-        <v>0.1176751967777906</v>
+        <v>-0.1394652482808232</v>
       </c>
       <c r="D81">
-        <v>-0.1117675725377456</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.1039406419594775</v>
+      </c>
+      <c r="E81">
+        <v>0.09874663931267974</v>
+      </c>
+      <c r="F81">
+        <v>0.05562613063006819</v>
+      </c>
+      <c r="G81">
+        <v>0.02522046889152775</v>
+      </c>
+      <c r="H81">
+        <v>0.02588569185362387</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2718816809949976</v>
+        <v>0.205017299219422</v>
       </c>
       <c r="C82">
-        <v>0.2437782964023424</v>
+        <v>-0.2681455632516139</v>
       </c>
       <c r="D82">
-        <v>-0.228988398418166</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2335431359469851</v>
+      </c>
+      <c r="E82">
+        <v>0.00622453207581288</v>
+      </c>
+      <c r="F82">
+        <v>-0.05255931738430408</v>
+      </c>
+      <c r="G82">
+        <v>0.07503477843002095</v>
+      </c>
+      <c r="H82">
+        <v>0.004532775011223083</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02033652709298931</v>
+        <v>0.01188394516406278</v>
       </c>
       <c r="C83">
-        <v>0.05951452651991351</v>
+        <v>-0.0563668731374932</v>
       </c>
       <c r="D83">
-        <v>0.04765838215222774</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05851230954044738</v>
+      </c>
+      <c r="E83">
+        <v>0.05532303011388289</v>
+      </c>
+      <c r="F83">
+        <v>-0.07471062061039917</v>
+      </c>
+      <c r="G83">
+        <v>-0.01989754304508369</v>
+      </c>
+      <c r="H83">
+        <v>-0.03021110150974621</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.001500859860668142</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.006335497358715026</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.02060396259613052</v>
+      </c>
+      <c r="E84">
+        <v>0.01292366317589383</v>
+      </c>
+      <c r="F84">
+        <v>0.02108913839675567</v>
+      </c>
+      <c r="G84">
+        <v>0.01426001786352406</v>
+      </c>
+      <c r="H84">
+        <v>0.01692619001807633</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1694171233463396</v>
+        <v>0.1367083606054141</v>
       </c>
       <c r="C85">
-        <v>0.1250960877363757</v>
+        <v>-0.1609520387018389</v>
       </c>
       <c r="D85">
-        <v>-0.06276933800812461</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.08605828952811631</v>
+      </c>
+      <c r="E85">
+        <v>0.01377987502490941</v>
+      </c>
+      <c r="F85">
+        <v>0.05497099326715213</v>
+      </c>
+      <c r="G85">
+        <v>-0.0506297079506265</v>
+      </c>
+      <c r="H85">
+        <v>0.02559328209541816</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.02211176120832755</v>
+        <v>0.01935883122656785</v>
       </c>
       <c r="C86">
-        <v>0.03769488700482031</v>
+        <v>-0.03783590996808966</v>
       </c>
       <c r="D86">
-        <v>0.1172197615508752</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.118151944302995</v>
+      </c>
+      <c r="E86">
+        <v>0.0292494296439644</v>
+      </c>
+      <c r="F86">
+        <v>-0.01434513227990472</v>
+      </c>
+      <c r="G86">
+        <v>0.03208177167087472</v>
+      </c>
+      <c r="H86">
+        <v>-0.05970825423357658</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02475689989704195</v>
+        <v>0.03055316842952373</v>
       </c>
       <c r="C87">
-        <v>0.02421036258067805</v>
+        <v>-0.0361904002596196</v>
       </c>
       <c r="D87">
-        <v>0.1111876688058185</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1403138716135524</v>
+      </c>
+      <c r="E87">
+        <v>0.05508283831922654</v>
+      </c>
+      <c r="F87">
+        <v>0.03088146804357732</v>
+      </c>
+      <c r="G87">
+        <v>0.01909389144748538</v>
+      </c>
+      <c r="H87">
+        <v>0.03842289117964763</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07448484438370162</v>
+        <v>0.06095388041051046</v>
       </c>
       <c r="C88">
-        <v>0.04487772467426152</v>
+        <v>-0.06159273254727416</v>
       </c>
       <c r="D88">
-        <v>0.05188119056069705</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02399399476321499</v>
+      </c>
+      <c r="E88">
+        <v>0.0031589478453222</v>
+      </c>
+      <c r="F88">
+        <v>0.02755543418518744</v>
+      </c>
+      <c r="G88">
+        <v>0.0002248336152004979</v>
+      </c>
+      <c r="H88">
+        <v>0.04082656026540049</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2644866000980473</v>
+        <v>0.3272378475968751</v>
       </c>
       <c r="C89">
-        <v>-0.3852543465811076</v>
+        <v>0.3112640336868615</v>
       </c>
       <c r="D89">
-        <v>-0.008925248164463367</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.00419575264389906</v>
+      </c>
+      <c r="E89">
+        <v>0.05771634999426638</v>
+      </c>
+      <c r="F89">
+        <v>0.005461890388368017</v>
+      </c>
+      <c r="G89">
+        <v>-0.01482907752909867</v>
+      </c>
+      <c r="H89">
+        <v>0.1452903180468419</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2224182203262669</v>
+        <v>0.2677253118233719</v>
       </c>
       <c r="C90">
-        <v>-0.2823153053266874</v>
+        <v>0.220506454547785</v>
       </c>
       <c r="D90">
-        <v>0.02035304076699142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03388662260525725</v>
+      </c>
+      <c r="E90">
+        <v>0.04758375991175194</v>
+      </c>
+      <c r="F90">
+        <v>0.005208436138502884</v>
+      </c>
+      <c r="G90">
+        <v>0.06488243927215775</v>
+      </c>
+      <c r="H90">
+        <v>0.01367270853952625</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1733725399918019</v>
+        <v>0.1358748058354906</v>
       </c>
       <c r="C91">
-        <v>0.1622848169440569</v>
+        <v>-0.1779865238394538</v>
       </c>
       <c r="D91">
-        <v>-0.130920197764475</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1194048634501246</v>
+      </c>
+      <c r="E91">
+        <v>0.09941459508293003</v>
+      </c>
+      <c r="F91">
+        <v>0.06248047577270922</v>
+      </c>
+      <c r="G91">
+        <v>-0.03692386843293832</v>
+      </c>
+      <c r="H91">
+        <v>-0.02884209202327417</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1889059007138116</v>
+        <v>0.2560208560842476</v>
       </c>
       <c r="C92">
-        <v>-0.2709491865827048</v>
+        <v>0.2403837583369138</v>
       </c>
       <c r="D92">
-        <v>0.01525949604253764</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03150655665441263</v>
+      </c>
+      <c r="E92">
+        <v>0.1076895977681305</v>
+      </c>
+      <c r="F92">
+        <v>0.01088711808467838</v>
+      </c>
+      <c r="G92">
+        <v>0.01394143449609196</v>
+      </c>
+      <c r="H92">
+        <v>0.0560943425573318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.240994782615173</v>
+        <v>0.2828788938630277</v>
       </c>
       <c r="C93">
-        <v>-0.2982048821684528</v>
+        <v>0.2320429344075807</v>
       </c>
       <c r="D93">
-        <v>0.02551617175075837</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.008285210394950749</v>
+      </c>
+      <c r="E93">
+        <v>-0.01512006806526253</v>
+      </c>
+      <c r="F93">
+        <v>0.03961066054609433</v>
+      </c>
+      <c r="G93">
+        <v>-0.008538662037548463</v>
+      </c>
+      <c r="H93">
+        <v>-0.01667047711088681</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.348437767617626</v>
+        <v>0.2838683053179418</v>
       </c>
       <c r="C94">
-        <v>0.2037727759234688</v>
+        <v>-0.2768156597698038</v>
       </c>
       <c r="D94">
-        <v>-0.351835812421058</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3809676695974704</v>
+      </c>
+      <c r="E94">
+        <v>0.01020304970073917</v>
+      </c>
+      <c r="F94">
+        <v>-0.03988708545011177</v>
+      </c>
+      <c r="G94">
+        <v>0.2668329756659992</v>
+      </c>
+      <c r="H94">
+        <v>0.1666446904766351</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07204855703317439</v>
+        <v>0.06460664405449809</v>
       </c>
       <c r="C95">
-        <v>0.06852416447813463</v>
+        <v>-0.0800579085107186</v>
       </c>
       <c r="D95">
-        <v>0.1479208898064075</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1245064356063814</v>
+      </c>
+      <c r="E95">
+        <v>0.1988778895389716</v>
+      </c>
+      <c r="F95">
+        <v>-0.6603405236396584</v>
+      </c>
+      <c r="G95">
+        <v>-0.3600259458423117</v>
+      </c>
+      <c r="H95">
+        <v>0.4825570530058957</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>1.192203411807268e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-9.727221273521123e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.000190088128375074</v>
+      </c>
+      <c r="E97">
+        <v>4.999506137851777e-05</v>
+      </c>
+      <c r="F97">
+        <v>0.0003899130574777497</v>
+      </c>
+      <c r="G97">
+        <v>0.0002958620986891168</v>
+      </c>
+      <c r="H97">
+        <v>-0.0003129261309454468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.172447963060667</v>
+        <v>0.1593042622124485</v>
       </c>
       <c r="C98">
-        <v>0.0572194242583073</v>
+        <v>-0.0987613829692868</v>
       </c>
       <c r="D98">
-        <v>0.1584193989883664</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1048582318932361</v>
+      </c>
+      <c r="E98">
+        <v>-0.3300571358200481</v>
+      </c>
+      <c r="F98">
+        <v>-0.08102514856627678</v>
+      </c>
+      <c r="G98">
+        <v>-0.07937066598798452</v>
+      </c>
+      <c r="H98">
+        <v>-0.1092737841253957</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003346828220876687</v>
+        <v>0.005466294504836588</v>
       </c>
       <c r="C101">
-        <v>0.02145966658672925</v>
+        <v>-0.02627891849271021</v>
       </c>
       <c r="D101">
-        <v>0.09293563283615199</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1026676257660713</v>
+      </c>
+      <c r="E101">
+        <v>0.009240061027981673</v>
+      </c>
+      <c r="F101">
+        <v>0.04917297318619564</v>
+      </c>
+      <c r="G101">
+        <v>0.02662389287742318</v>
+      </c>
+      <c r="H101">
+        <v>0.07883457964376848</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1271662664365021</v>
+        <v>0.09233467495681912</v>
       </c>
       <c r="C102">
-        <v>0.1291780522762594</v>
+        <v>-0.1341072161974126</v>
       </c>
       <c r="D102">
-        <v>-0.09390117486881012</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09945671191660568</v>
+      </c>
+      <c r="E102">
+        <v>0.02511855009965481</v>
+      </c>
+      <c r="F102">
+        <v>-0.03882770714037871</v>
+      </c>
+      <c r="G102">
+        <v>0.03040938170187842</v>
+      </c>
+      <c r="H102">
+        <v>0.0006450615753921819</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
